--- a/StructureDefinition-ObservationHealthConsultation-HPA.xlsx
+++ b/StructureDefinition-ObservationHealthConsultation-HPA.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/StructureDefinition/ObservationHealthConsultation-HPA</t>
+    <t>https://twhpa.tsti.com/StructureDefinition/ObservationHealthConsultation-HPA</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -1078,7 +1078,7 @@
     <t>知道正在進行的是哪種檢驗檢查是理解檢驗檢查的關鍵</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/ValueSet/snomed-health-consultation-code</t>
+    <t>https://twhpa.tsti.com/ValueSet/snomed-health-consultation-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1102,7 +1102,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Patient-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Patient-HPA)
 </t>
   </si>
   <si>
@@ -1247,7 +1247,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Organization-HPA|https://etatunghpa.com/StructureDefinition/Practitioner-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Organization-HPA|https://twhpa.tsti.com/StructureDefinition/Practitioner-HPA)
 </t>
   </si>
   <si>
@@ -2172,7 +2172,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2187,7 +2187,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.20703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.0703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8671875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
